--- a/99%勝てる株スクリーニング.xlsx
+++ b/99%勝てる株スクリーニング.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000123921\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837092BF-FF96-4080-AFCD-AC301E6F3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19DF40-33CD-4A80-9F0C-C8AFC5D007F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$C$1:$AC$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="188">
   <si>
     <t>将来配当利回り</t>
   </si>
@@ -111,9 +111,6 @@
     <t>④将来配当</t>
   </si>
   <si>
-    <t>⑤将来配当利回り</t>
-  </si>
-  <si>
     <t>ジェイエイシーリクルートメント</t>
   </si>
   <si>
@@ -123,15 +120,9 @@
     <t>なし</t>
   </si>
   <si>
-    <t>◯</t>
-  </si>
-  <si>
     <t>あり 動画</t>
   </si>
   <si>
-    <t>◎</t>
-  </si>
-  <si>
     <t>あり</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
   </si>
   <si>
     <t>情報・通信業</t>
-  </si>
-  <si>
-    <t>△</t>
   </si>
   <si>
     <t>山田コンサルティングG</t>
@@ -652,6 +640,14 @@
   </si>
   <si>
     <t>学究社</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤将来配当利回り</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1064,7 +1060,14 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4561,13 +4564,15 @@
   </sheetPr>
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
@@ -4584,13 +4589,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>3</v>
@@ -4608,7 +4613,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>7</v>
@@ -4662,2734 +4667,2718 @@
         <v>23</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <f t="shared" ref="A2:A32" si="0">AA2</f>
-        <v>4.4342861807365991E-2</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="33" t="s">
-        <v>29</v>
+      <c r="A2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="19">
+        <f>AA2</f>
+        <v>0.11510412446317154</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="E2" s="38">
-        <v>7730</v>
+        <v>4423</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J2" s="40">
-        <v>196009</v>
+        <v>98728</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N2" s="41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O2" s="40">
-        <v>24488</v>
+        <v>59452</v>
       </c>
       <c r="P2" s="40">
-        <v>7243</v>
+        <v>9470</v>
       </c>
       <c r="Q2" s="41">
-        <v>0.29599999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="R2" s="40">
-        <v>5953</v>
+        <v>5878</v>
       </c>
       <c r="S2" s="41">
-        <v>0.24299999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="T2" s="41">
-        <v>0.11899999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="U2" s="41">
-        <v>0.90600000000000003</v>
+        <v>0.255</v>
       </c>
       <c r="V2" s="40">
-        <v>49827</v>
+        <v>28568</v>
       </c>
       <c r="W2" s="34">
-        <f t="shared" ref="W2:W24" si="1">P2*0.6</f>
-        <v>4345.8</v>
+        <f>P2*0.6</f>
+        <v>5682</v>
       </c>
       <c r="X2" s="21">
-        <f t="shared" ref="X2:X24" si="2">W2*0.4</f>
-        <v>1738.3200000000002</v>
+        <f>W2*0.4</f>
+        <v>2272.8000000000002</v>
       </c>
       <c r="Y2" s="22">
         <f>W2/V2</f>
-        <v>8.7217773496297196E-2</v>
+        <v>0.19889386726407168</v>
       </c>
       <c r="Z2" s="20">
         <f>IF(U2&gt;=0.2,X2*5,IF(U2&gt;=0.15,X2*3,IF(U2&gt;=0.1,X2*2,X2*1.5)))</f>
-        <v>8691.6</v>
+        <v>11364</v>
       </c>
       <c r="AA2" s="22">
         <f>Z2/J2</f>
-        <v>4.4342861807365991E-2</v>
+        <v>0.11510412446317154</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <f t="shared" si="0"/>
-        <v>3.8800499142099515E-2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="33" t="s">
-        <v>36</v>
+      <c r="A3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19">
+        <f>AA3</f>
+        <v>6.7629769299023951E-2</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E3" s="38">
-        <v>4552</v>
+        <v>3844</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J3" s="40">
-        <v>153864</v>
+        <v>72128</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="N3" s="41">
+        <v>0.02</v>
       </c>
       <c r="O3" s="40">
-        <v>34343</v>
+        <v>29056</v>
       </c>
       <c r="P3" s="40">
-        <v>4975</v>
+        <v>4065</v>
       </c>
       <c r="Q3" s="41">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R3" s="40">
-        <v>3772</v>
+        <v>2695</v>
       </c>
       <c r="S3" s="41">
-        <v>0.11</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="T3" s="41">
-        <v>7.2999999999999995E-2</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="U3" s="41">
-        <v>0.54300000000000004</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="V3" s="40">
-        <v>51970</v>
+        <v>15305</v>
       </c>
       <c r="W3" s="34">
-        <f t="shared" si="1"/>
-        <v>2985</v>
+        <f>P3*0.6</f>
+        <v>2439</v>
       </c>
       <c r="X3" s="21">
-        <f t="shared" si="2"/>
-        <v>1194</v>
+        <f>W3*0.4</f>
+        <v>975.6</v>
       </c>
       <c r="Y3" s="22">
         <f>W3/V3</f>
-        <v>5.7436982874735427E-2</v>
+        <v>0.15935968637700099</v>
       </c>
       <c r="Z3" s="20">
-        <f t="shared" ref="Z3:Z32" si="3">IF(U3&gt;=0.2,X3*5,IF(U3&gt;=0.15,X3*3,IF(U3&gt;=0.1,X3*2,X3*1.5)))</f>
-        <v>5970</v>
+        <f>IF(U3&gt;=0.2,X3*5,IF(U3&gt;=0.15,X3*3,IF(U3&gt;=0.1,X3*2,X3*1.5)))</f>
+        <v>4878</v>
       </c>
       <c r="AA3" s="22">
         <f>Z3/J3</f>
-        <v>3.8800499142099515E-2</v>
+        <v>6.7629769299023951E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <f t="shared" si="0"/>
-        <v>6.8553127660437016E-2</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>27</v>
+      <c r="C4" s="19">
+        <f>AA4</f>
+        <v>6.0892061216220435E-2</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E4" s="38">
-        <v>2815</v>
+        <v>4825</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J4" s="40">
-        <v>148002</v>
+        <v>64166</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="N4" s="41">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="O4" s="40">
-        <v>55698</v>
+        <v>21114</v>
       </c>
       <c r="P4" s="40">
-        <v>8455</v>
+        <v>3256</v>
       </c>
       <c r="Q4" s="41">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="R4" s="40">
-        <v>6385</v>
+        <v>2398</v>
       </c>
       <c r="S4" s="41">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="T4" s="41">
-        <v>5.7000000000000002E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="U4" s="41">
-        <v>0.871</v>
+        <v>0.88</v>
       </c>
       <c r="V4" s="40">
-        <v>111342</v>
+        <v>18158</v>
       </c>
       <c r="W4" s="34">
-        <f t="shared" si="1"/>
-        <v>5073</v>
+        <f>P4*0.6</f>
+        <v>1953.6</v>
       </c>
       <c r="X4" s="21">
-        <f t="shared" si="2"/>
-        <v>2029.2</v>
+        <f>W4*0.4</f>
+        <v>781.44</v>
       </c>
       <c r="Y4" s="22">
         <f>W4/V4</f>
-        <v>4.5562321495931452E-2</v>
+        <v>0.10758894151338252</v>
       </c>
       <c r="Z4" s="20">
-        <f t="shared" si="3"/>
-        <v>10146</v>
+        <f>IF(U4&gt;=0.2,X4*5,IF(U4&gt;=0.15,X4*3,IF(U4&gt;=0.1,X4*2,X4*1.5)))</f>
+        <v>3907.2000000000003</v>
       </c>
       <c r="AA4" s="22">
-        <f t="shared" ref="AA4:AA32" si="4">Z4/J4</f>
-        <v>6.8553127660437016E-2</v>
+        <f>Z4/J4</f>
+        <v>6.0892061216220435E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <f t="shared" si="0"/>
-        <v>6.7326467834693052E-2</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
+        <f>AA5</f>
+        <v>0.16897206782523042</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="38">
+        <v>3817</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="38">
-        <v>4919</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J5" s="40">
-        <v>134586</v>
+        <v>42639</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="N5" s="41">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O5" s="40">
+        <v>42864</v>
+      </c>
+      <c r="P5" s="40">
+        <v>6004</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R5" s="39">
+        <v>879</v>
+      </c>
+      <c r="S5" s="41">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O5" s="40">
-        <v>45238</v>
-      </c>
-      <c r="P5" s="40">
-        <v>7551</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="R5" s="40">
-        <v>5577</v>
-      </c>
-      <c r="S5" s="41">
-        <v>0.123</v>
-      </c>
       <c r="T5" s="41">
-        <v>0.123</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="U5" s="41">
-        <v>0.84399999999999997</v>
+        <v>0.623</v>
       </c>
       <c r="V5" s="40">
-        <v>45351</v>
+        <v>25674</v>
       </c>
       <c r="W5" s="34">
-        <f t="shared" si="1"/>
-        <v>4530.5999999999995</v>
+        <f>P5*0.6</f>
+        <v>3602.4</v>
       </c>
       <c r="X5" s="21">
-        <f t="shared" si="2"/>
-        <v>1812.2399999999998</v>
+        <f>W5*0.4</f>
+        <v>1440.96</v>
       </c>
       <c r="Y5" s="22">
         <f>W5/V5</f>
-        <v>9.9900773963087899E-2</v>
+        <v>0.14031315727973825</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="3"/>
-        <v>9061.1999999999989</v>
+        <f>IF(U5&gt;=0.2,X5*5,IF(U5&gt;=0.15,X5*3,IF(U5&gt;=0.1,X5*2,X5*1.5)))</f>
+        <v>7204.8</v>
       </c>
       <c r="AA5" s="22">
-        <f t="shared" si="4"/>
-        <v>6.7326467834693052E-2</v>
+        <f>Z5/J5</f>
+        <v>0.16897206782523042</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <f t="shared" si="0"/>
-        <v>6.7187130352495864E-2</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>162</v>
+      <c r="A6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="19">
+        <f>AA6</f>
+        <v>0.14276094276094276</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E6" s="38">
-        <v>9757</v>
+        <v>8707</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J6" s="40">
-        <v>126810</v>
+        <v>40095</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6" s="41">
-        <v>2.5000000000000001E-2</v>
+        <v>80</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="O6" s="40">
-        <v>25635</v>
+        <v>19691</v>
       </c>
       <c r="P6" s="40">
-        <v>7100</v>
+        <v>4770</v>
       </c>
       <c r="Q6" s="41">
-        <v>0.27700000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="R6" s="40">
-        <v>4990</v>
+        <v>3564</v>
       </c>
       <c r="S6" s="41">
-        <v>0.19500000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="T6" s="41">
-        <v>0.183</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="U6" s="41">
-        <v>0.81799999999999995</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V6" s="40">
-        <v>27214</v>
+        <v>58666</v>
       </c>
       <c r="W6" s="34">
-        <f t="shared" si="1"/>
-        <v>4260</v>
+        <f>P6*0.6</f>
+        <v>2862</v>
       </c>
       <c r="X6" s="21">
-        <f t="shared" si="2"/>
-        <v>1704</v>
+        <f>W6*0.4</f>
+        <v>1144.8</v>
       </c>
       <c r="Y6" s="22">
         <f>W6/V6</f>
-        <v>0.15653707650474022</v>
+        <v>4.8784645280059998E-2</v>
       </c>
       <c r="Z6" s="20">
-        <f t="shared" si="3"/>
-        <v>8520</v>
+        <f>IF(U6&gt;=0.2,X6*5,IF(U6&gt;=0.15,X6*3,IF(U6&gt;=0.1,X6*2,X6*1.5)))</f>
+        <v>5724</v>
       </c>
       <c r="AA6" s="22">
-        <f t="shared" si="4"/>
-        <v>6.7187130352495864E-2</v>
+        <f>Z6/J6</f>
+        <v>0.14276094276094276</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11510412446317154</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>167</v>
+      <c r="A7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="19">
+        <f>AA7</f>
+        <v>0.10532193780771115</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E7" s="38">
-        <v>4423</v>
+        <v>7749</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J7" s="40">
-        <v>98728</v>
+        <v>46919</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="N7" s="41">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O7" s="40">
-        <v>59452</v>
+        <v>21607</v>
       </c>
       <c r="P7" s="40">
-        <v>9470</v>
+        <v>4118</v>
       </c>
       <c r="Q7" s="41">
-        <v>0.159</v>
+        <v>0.191</v>
       </c>
       <c r="R7" s="40">
-        <v>5878</v>
+        <v>2864</v>
       </c>
       <c r="S7" s="41">
-        <v>9.9000000000000005E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="T7" s="41">
-        <v>0.20599999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="U7" s="41">
-        <v>0.255</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="V7" s="40">
-        <v>28568</v>
+        <v>46713</v>
       </c>
       <c r="W7" s="34">
-        <f t="shared" si="1"/>
-        <v>5682</v>
+        <f>P7*0.6</f>
+        <v>2470.7999999999997</v>
       </c>
       <c r="X7" s="21">
-        <f t="shared" si="2"/>
-        <v>2272.8000000000002</v>
+        <f>W7*0.4</f>
+        <v>988.31999999999994</v>
       </c>
       <c r="Y7" s="22">
         <f>W7/V7</f>
-        <v>0.19889386726407168</v>
+        <v>5.2893198895382437E-2</v>
       </c>
       <c r="Z7" s="20">
-        <f t="shared" si="3"/>
-        <v>11364</v>
+        <f>IF(U7&gt;=0.2,X7*5,IF(U7&gt;=0.15,X7*3,IF(U7&gt;=0.1,X7*2,X7*1.5)))</f>
+        <v>4941.5999999999995</v>
       </c>
       <c r="AA7" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11510412446317154</v>
+        <f>Z7/J7</f>
+        <v>0.10532193780771115</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>8.7327726925222629E-2</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>27</v>
+      <c r="A8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="19">
+        <f>AA8</f>
+        <v>3.8800499142099515E-2</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E8" s="38">
-        <v>2124</v>
+        <v>4552</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J8" s="40">
-        <v>96794</v>
+        <v>153864</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="41">
-        <v>3.5000000000000003E-2</v>
+        <v>109</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="O8" s="40">
-        <v>30435</v>
+        <v>34343</v>
       </c>
       <c r="P8" s="40">
-        <v>7044</v>
+        <v>4975</v>
       </c>
       <c r="Q8" s="41">
-        <v>0.23100000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="R8" s="40">
-        <v>5029</v>
+        <v>3772</v>
       </c>
       <c r="S8" s="41">
-        <v>0.16500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="T8" s="41">
-        <v>0.35299999999999998</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="U8" s="41">
-        <v>0.70399999999999996</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="V8" s="40">
-        <v>14260</v>
+        <v>51970</v>
       </c>
       <c r="W8" s="34">
-        <f t="shared" si="1"/>
-        <v>4226.3999999999996</v>
+        <f>P8*0.6</f>
+        <v>2985</v>
       </c>
       <c r="X8" s="21">
-        <f t="shared" si="2"/>
-        <v>1690.56</v>
+        <f>W8*0.4</f>
+        <v>1194</v>
       </c>
       <c r="Y8" s="22">
         <f>W8/V8</f>
-        <v>0.29638148667601683</v>
+        <v>5.7436982874735427E-2</v>
       </c>
       <c r="Z8" s="20">
-        <f t="shared" si="3"/>
-        <v>8452.7999999999993</v>
+        <f>IF(U8&gt;=0.2,X8*5,IF(U8&gt;=0.15,X8*3,IF(U8&gt;=0.1,X8*2,X8*1.5)))</f>
+        <v>5970</v>
       </c>
       <c r="AA8" s="22">
-        <f t="shared" si="4"/>
-        <v>8.7327726925222629E-2</v>
+        <f>Z8/J8</f>
+        <v>3.8800499142099515E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>5.7336940878475622E-2</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>162</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="19">
+        <f>AA9</f>
+        <v>7.8101973735454008E-2</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E9" s="38">
-        <v>8771</v>
+        <v>6929</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="40">
+        <v>64193</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="40">
-        <v>86855</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>70</v>
-      </c>
       <c r="M9" s="39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N9" s="41">
-        <v>1.9E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O9" s="40">
-        <v>8494</v>
+        <v>23258</v>
       </c>
       <c r="P9" s="40">
-        <v>4150</v>
+        <v>4178</v>
       </c>
       <c r="Q9" s="41">
-        <v>0.48899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R9" s="40">
-        <v>2864</v>
+        <v>5022</v>
       </c>
       <c r="S9" s="41">
-        <v>0.33700000000000002</v>
+        <v>0.216</v>
       </c>
       <c r="T9" s="41">
-        <v>0.14699999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="U9" s="41">
-        <v>0.73699999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="V9" s="40">
-        <v>19536</v>
+        <v>48585</v>
       </c>
       <c r="W9" s="34">
-        <f t="shared" si="1"/>
-        <v>2490</v>
+        <f>P9*0.6</f>
+        <v>2506.7999999999997</v>
       </c>
       <c r="X9" s="21">
-        <f t="shared" si="2"/>
-        <v>996</v>
+        <f>W9*0.4</f>
+        <v>1002.7199999999999</v>
       </c>
       <c r="Y9" s="22">
         <f>W9/V9</f>
-        <v>0.12745700245700245</v>
+        <v>5.1596171657919104E-2</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="3"/>
-        <v>4980</v>
+        <f>IF(U9&gt;=0.2,X9*5,IF(U9&gt;=0.15,X9*3,IF(U9&gt;=0.1,X9*2,X9*1.5)))</f>
+        <v>5013.5999999999995</v>
       </c>
       <c r="AA9" s="22">
-        <f t="shared" si="4"/>
-        <v>5.7336940878475622E-2</v>
+        <f>Z9/J9</f>
+        <v>7.8101973735454008E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>3.9487880313601384E-2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>27</v>
+      <c r="A10" s="17"/>
+      <c r="B10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19">
+        <f>AA10</f>
+        <v>8.6391143219027064E-2</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E10" s="38">
-        <v>7177</v>
+        <v>7447</v>
       </c>
       <c r="F10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="H10" s="39" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J10" s="40">
-        <v>83418</v>
+        <v>63951</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>84</v>
+        <v>131</v>
+      </c>
+      <c r="N10" s="41">
+        <v>0.03</v>
       </c>
       <c r="O10" s="40">
-        <v>46533</v>
+        <v>17181</v>
       </c>
       <c r="P10" s="40">
-        <v>9150</v>
+        <v>4604</v>
       </c>
       <c r="Q10" s="41">
-        <v>0.19700000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="R10" s="40">
-        <v>1212</v>
+        <v>3226</v>
       </c>
       <c r="S10" s="41">
-        <v>2.5999999999999999E-2</v>
+        <v>0.188</v>
       </c>
       <c r="T10" s="41">
-        <v>2.7E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U10" s="41">
-        <v>0.04</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="V10" s="40">
-        <v>44139</v>
+        <v>43214</v>
       </c>
       <c r="W10" s="34">
-        <f t="shared" si="1"/>
-        <v>5490</v>
+        <f>P10*0.6</f>
+        <v>2762.4</v>
       </c>
       <c r="X10" s="21">
-        <f t="shared" si="2"/>
-        <v>2196</v>
+        <f>W10*0.4</f>
+        <v>1104.96</v>
       </c>
       <c r="Y10" s="22">
         <f>W10/V10</f>
-        <v>0.12437980017671448</v>
+        <v>6.392372842134493E-2</v>
       </c>
       <c r="Z10" s="20">
-        <f t="shared" si="3"/>
-        <v>3294</v>
+        <f>IF(U10&gt;=0.2,X10*5,IF(U10&gt;=0.15,X10*3,IF(U10&gt;=0.1,X10*2,X10*1.5)))</f>
+        <v>5524.8</v>
       </c>
       <c r="AA10" s="22">
-        <f t="shared" si="4"/>
-        <v>3.9487880313601384E-2</v>
+        <f>Z10/J10</f>
+        <v>8.6391143219027064E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5.8757967765769602E-2</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>27</v>
+      <c r="C11" s="19">
+        <f>AA11</f>
+        <v>0.11517057633366053</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E11" s="38">
-        <v>4481</v>
+        <v>5302</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11" s="40">
-        <v>79853</v>
+        <v>49919</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N11" s="41">
-        <v>0.02</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O11" s="40">
-        <v>17045</v>
+        <v>35799</v>
       </c>
       <c r="P11" s="40">
-        <v>3910</v>
+        <v>4791</v>
       </c>
       <c r="Q11" s="41">
-        <v>0.22900000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="R11" s="40">
-        <v>2726</v>
+        <v>3194</v>
       </c>
       <c r="S11" s="41">
-        <v>0.16</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="T11" s="41">
-        <v>0.25</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="U11" s="41">
-        <v>0.73499999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="V11" s="40">
-        <v>10907</v>
+        <v>47819</v>
       </c>
       <c r="W11" s="34">
-        <f t="shared" si="1"/>
-        <v>2346</v>
+        <f>P11*0.6</f>
+        <v>2874.6</v>
       </c>
       <c r="X11" s="21">
-        <f t="shared" si="2"/>
-        <v>938.40000000000009</v>
+        <f>W11*0.4</f>
+        <v>1149.8399999999999</v>
       </c>
       <c r="Y11" s="22">
         <f>W11/V11</f>
-        <v>0.21509122581828183</v>
+        <v>6.0114180555845997E-2</v>
       </c>
       <c r="Z11" s="20">
-        <f t="shared" si="3"/>
-        <v>4692</v>
+        <f>IF(U11&gt;=0.2,X11*5,IF(U11&gt;=0.15,X11*3,IF(U11&gt;=0.1,X11*2,X11*1.5)))</f>
+        <v>5749.2</v>
       </c>
       <c r="AA11" s="22">
-        <f t="shared" si="4"/>
-        <v>5.8757967765769602E-2</v>
+        <f>Z11/J11</f>
+        <v>0.11517057633366053</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>7.1235744587075087E-2</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="33" t="s">
-        <v>27</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="19">
+        <f>AA12</f>
+        <v>0.13254463893042484</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E12" s="38">
-        <v>3668</v>
+        <v>6333</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J12" s="40">
-        <v>72604</v>
+        <v>45476</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="L12" s="39" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>84</v>
+        <v>137</v>
+      </c>
+      <c r="N12" s="41">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O12" s="40">
-        <v>32541</v>
+        <v>28450</v>
       </c>
       <c r="P12" s="40">
-        <v>4310</v>
+        <v>5023</v>
       </c>
       <c r="Q12" s="41">
-        <v>0.13200000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="R12" s="40">
-        <v>2414</v>
+        <v>3996</v>
       </c>
       <c r="S12" s="41">
-        <v>7.3999999999999996E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T12" s="41">
-        <v>3.2000000000000001E-2</v>
+        <v>0.128</v>
       </c>
       <c r="U12" s="41">
-        <v>0.93799999999999994</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="V12" s="40">
-        <v>75471</v>
+        <v>31310</v>
       </c>
       <c r="W12" s="34">
-        <f t="shared" si="1"/>
-        <v>2586</v>
+        <f>P12*0.6</f>
+        <v>3013.7999999999997</v>
       </c>
       <c r="X12" s="21">
-        <f t="shared" si="2"/>
-        <v>1034.4000000000001</v>
+        <f>W12*0.4</f>
+        <v>1205.52</v>
       </c>
       <c r="Y12" s="22">
-        <f t="shared" ref="Y12:Y21" si="5">W12/V12</f>
-        <v>3.4264816949556784E-2</v>
+        <f>W12/V12</f>
+        <v>9.6256786969019473E-2</v>
       </c>
       <c r="Z12" s="20">
-        <f t="shared" si="3"/>
-        <v>5172</v>
+        <f>IF(U12&gt;=0.2,X12*5,IF(U12&gt;=0.15,X12*3,IF(U12&gt;=0.1,X12*2,X12*1.5)))</f>
+        <v>6027.6</v>
       </c>
       <c r="AA12" s="22">
-        <f t="shared" si="4"/>
-        <v>7.1235744587075087E-2</v>
+        <f>Z12/J12</f>
+        <v>0.13254463893042484</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>6.7629769299023951E-2</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="33" t="s">
-        <v>31</v>
+      <c r="A13" s="20"/>
+      <c r="B13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="19">
+        <f>AA13</f>
+        <v>0.11140166281436507</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E13" s="38">
-        <v>3844</v>
+        <v>4345</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="40">
+        <v>28987</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="41">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O13" s="40">
+        <v>10797</v>
+      </c>
+      <c r="P13" s="40">
+        <v>2691</v>
+      </c>
+      <c r="Q13" s="41">
+        <v>0.249</v>
+      </c>
+      <c r="R13" s="40">
+        <v>1758</v>
+      </c>
+      <c r="S13" s="41">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U13" s="41">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="V13" s="40">
+        <v>10645</v>
+      </c>
+      <c r="W13" s="34">
+        <f>P13*0.6</f>
+        <v>1614.6</v>
+      </c>
+      <c r="X13" s="21">
+        <f>W13*0.4</f>
+        <v>645.84</v>
+      </c>
+      <c r="Y13" s="22">
+        <f>W13/V13</f>
+        <v>0.15167684358853922</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>IF(U13&gt;=0.2,X13*5,IF(U13&gt;=0.15,X13*3,IF(U13&gt;=0.1,X13*2,X13*1.5)))</f>
+        <v>3229.2000000000003</v>
+      </c>
+      <c r="AA13" s="22">
+        <f>Z13/J13</f>
+        <v>0.11140166281436507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19">
+        <f>AA14</f>
+        <v>0.14896302975653744</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="38">
+        <v>7638</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="40">
+        <v>26616</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="41">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O14" s="40">
+        <v>21463</v>
+      </c>
+      <c r="P14" s="40">
+        <v>3304</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>0.154</v>
+      </c>
+      <c r="R14" s="40">
+        <v>1727</v>
+      </c>
+      <c r="S14" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0.22</v>
+      </c>
+      <c r="U14" s="41">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="V14" s="40">
+        <v>7848</v>
+      </c>
+      <c r="W14" s="34">
+        <f>P14*0.6</f>
+        <v>1982.3999999999999</v>
+      </c>
+      <c r="X14" s="21">
+        <f>W14*0.4</f>
+        <v>792.96</v>
+      </c>
+      <c r="Y14" s="22">
+        <f>W14/V14</f>
+        <v>0.25259938837920487</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>IF(U14&gt;=0.2,X14*5,IF(U14&gt;=0.15,X14*3,IF(U14&gt;=0.1,X14*2,X14*1.5)))</f>
+        <v>3964.8</v>
+      </c>
+      <c r="AA14" s="22">
+        <f>Z14/J14</f>
+        <v>0.14896302975653744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="42">
+        <f>AA15</f>
+        <v>0.15373764558489164</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="45">
+        <v>9769</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="47">
+        <v>21551</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="48">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O15" s="47">
+        <v>12986</v>
+      </c>
+      <c r="P15" s="47">
+        <v>2761</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="R15" s="47">
+        <v>1881</v>
+      </c>
+      <c r="S15" s="48">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="T15" s="48">
+        <v>0.373</v>
+      </c>
+      <c r="U15" s="48">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="V15" s="47">
+        <v>5043</v>
+      </c>
+      <c r="W15" s="49">
+        <f>P15*0.6</f>
+        <v>1656.6</v>
+      </c>
+      <c r="X15" s="50">
+        <f>W15*0.4</f>
+        <v>662.64</v>
+      </c>
+      <c r="Y15" s="51">
+        <f>W15/V15</f>
+        <v>0.32849494348602021</v>
+      </c>
+      <c r="Z15" s="43">
+        <f>IF(U15&gt;=0.2,X15*5,IF(U15&gt;=0.15,X15*3,IF(U15&gt;=0.1,X15*2,X15*1.5)))</f>
+        <v>3313.2</v>
+      </c>
+      <c r="AA15" s="51">
+        <f>Z15/J15</f>
+        <v>0.15373764558489164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="19">
+        <f>AA16</f>
+        <v>0.11158635625338385</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="38">
+        <v>8798</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="40">
+        <v>22164</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O16" s="40">
+        <v>11860</v>
+      </c>
+      <c r="P16" s="40">
+        <v>2061</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="R16" s="40">
+        <v>1312</v>
+      </c>
+      <c r="S16" s="41">
+        <v>0.111</v>
+      </c>
+      <c r="T16" s="41">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="U16" s="41">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="V16" s="40">
+        <v>5739</v>
+      </c>
+      <c r="W16" s="34">
+        <f>P16*0.6</f>
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="X16" s="21">
+        <f>W16*0.4</f>
+        <v>494.64</v>
+      </c>
+      <c r="Y16" s="22">
+        <f>W16/V16</f>
+        <v>0.21547307893361212</v>
+      </c>
+      <c r="Z16" s="20">
+        <f>IF(U16&gt;=0.2,X16*5,IF(U16&gt;=0.15,X16*3,IF(U16&gt;=0.1,X16*2,X16*1.5)))</f>
+        <v>2473.1999999999998</v>
+      </c>
+      <c r="AA16" s="22">
+        <f>Z16/J16</f>
+        <v>0.11158635625338385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19">
+        <f>AA17</f>
+        <v>4.4342861807365991E-2</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="38">
+        <v>7730</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="40">
+        <v>196009</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="O17" s="40">
+        <v>24488</v>
+      </c>
+      <c r="P17" s="40">
+        <v>7243</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="R17" s="40">
+        <v>5953</v>
+      </c>
+      <c r="S17" s="41">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="T17" s="41">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="U17" s="41">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="V17" s="40">
+        <v>49827</v>
+      </c>
+      <c r="W17" s="34">
+        <f>P17*0.6</f>
+        <v>4345.8</v>
+      </c>
+      <c r="X17" s="21">
+        <f>W17*0.4</f>
+        <v>1738.3200000000002</v>
+      </c>
+      <c r="Y17" s="22">
+        <f>W17/V17</f>
+        <v>8.7217773496297196E-2</v>
+      </c>
+      <c r="Z17" s="20">
+        <f>IF(U17&gt;=0.2,X17*5,IF(U17&gt;=0.15,X17*3,IF(U17&gt;=0.1,X17*2,X17*1.5)))</f>
+        <v>8691.6</v>
+      </c>
+      <c r="AA17" s="22">
+        <f>Z17/J17</f>
+        <v>4.4342861807365991E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19">
+        <f>AA18</f>
+        <v>6.8553127660437016E-2</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2815</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="40">
+        <v>148002</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="40">
-        <v>72128</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="41">
-        <v>0.02</v>
-      </c>
-      <c r="O13" s="40">
-        <v>29056</v>
-      </c>
-      <c r="P13" s="40">
-        <v>4065</v>
-      </c>
-      <c r="Q13" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R13" s="40">
-        <v>2695</v>
-      </c>
-      <c r="S13" s="41">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="U13" s="41">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="V13" s="40">
-        <v>15305</v>
-      </c>
-      <c r="W13" s="34">
-        <f t="shared" si="1"/>
-        <v>2439</v>
-      </c>
-      <c r="X13" s="21">
-        <f t="shared" si="2"/>
-        <v>975.6</v>
-      </c>
-      <c r="Y13" s="22">
-        <f t="shared" si="5"/>
-        <v>0.15935968637700099</v>
-      </c>
-      <c r="Z13" s="20">
-        <f t="shared" si="3"/>
-        <v>4878</v>
-      </c>
-      <c r="AA13" s="22">
-        <f t="shared" si="4"/>
-        <v>6.7629769299023951E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>7.8101973735454008E-2</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="38">
-        <v>6929</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="40">
-        <v>64193</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14" s="41">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="O14" s="40">
-        <v>23258</v>
-      </c>
-      <c r="P14" s="40">
-        <v>4178</v>
-      </c>
-      <c r="Q14" s="41">
-        <v>0.18</v>
-      </c>
-      <c r="R14" s="40">
-        <v>5022</v>
-      </c>
-      <c r="S14" s="41">
-        <v>0.216</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="U14" s="41">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="V14" s="40">
-        <v>48585</v>
-      </c>
-      <c r="W14" s="34">
-        <f t="shared" si="1"/>
-        <v>2506.7999999999997</v>
-      </c>
-      <c r="X14" s="21">
-        <f t="shared" si="2"/>
-        <v>1002.7199999999999</v>
-      </c>
-      <c r="Y14" s="22">
-        <f t="shared" si="5"/>
-        <v>5.1596171657919104E-2</v>
-      </c>
-      <c r="Z14" s="20">
-        <f t="shared" si="3"/>
-        <v>5013.5999999999995</v>
-      </c>
-      <c r="AA14" s="22">
-        <f t="shared" si="4"/>
-        <v>7.8101973735454008E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>6.0892061216220435E-2</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="38">
-        <v>4825</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="40">
-        <v>64166</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" s="41">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="O15" s="40">
-        <v>21114</v>
-      </c>
-      <c r="P15" s="40">
-        <v>3256</v>
-      </c>
-      <c r="Q15" s="41">
-        <v>0.154</v>
-      </c>
-      <c r="R15" s="40">
-        <v>2398</v>
-      </c>
-      <c r="S15" s="41">
-        <v>0.114</v>
-      </c>
-      <c r="T15" s="41">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="U15" s="41">
-        <v>0.88</v>
-      </c>
-      <c r="V15" s="40">
-        <v>18158</v>
-      </c>
-      <c r="W15" s="34">
-        <f t="shared" si="1"/>
-        <v>1953.6</v>
-      </c>
-      <c r="X15" s="21">
-        <f t="shared" si="2"/>
-        <v>781.44</v>
-      </c>
-      <c r="Y15" s="22">
-        <f t="shared" si="5"/>
-        <v>0.10758894151338252</v>
-      </c>
-      <c r="Z15" s="20">
-        <f t="shared" si="3"/>
-        <v>3907.2000000000003</v>
-      </c>
-      <c r="AA15" s="22">
-        <f t="shared" si="4"/>
-        <v>6.0892061216220435E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <f t="shared" si="0"/>
-        <v>8.6391143219027064E-2</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="38">
-        <v>7447</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="40">
-        <v>63951</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="O16" s="40">
-        <v>17181</v>
-      </c>
-      <c r="P16" s="40">
-        <v>4604</v>
-      </c>
-      <c r="Q16" s="41">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="R16" s="40">
-        <v>3226</v>
-      </c>
-      <c r="S16" s="41">
-        <v>0.188</v>
-      </c>
-      <c r="T16" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="U16" s="41">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="V16" s="40">
-        <v>43214</v>
-      </c>
-      <c r="W16" s="34">
-        <f t="shared" si="1"/>
-        <v>2762.4</v>
-      </c>
-      <c r="X16" s="21">
-        <f t="shared" si="2"/>
-        <v>1104.96</v>
-      </c>
-      <c r="Y16" s="22">
-        <f t="shared" si="5"/>
-        <v>6.392372842134493E-2</v>
-      </c>
-      <c r="Z16" s="20">
-        <f t="shared" si="3"/>
-        <v>5524.8</v>
-      </c>
-      <c r="AA16" s="22">
-        <f t="shared" si="4"/>
-        <v>8.6391143219027064E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11625197438815198</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="38">
-        <v>8739</v>
-      </c>
-      <c r="F17" s="39" t="s">
+      <c r="M18" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O18" s="40">
+        <v>55698</v>
+      </c>
+      <c r="P18" s="40">
+        <v>8455</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>0.152</v>
+      </c>
+      <c r="R18" s="40">
+        <v>6385</v>
+      </c>
+      <c r="S18" s="41">
+        <v>0.115</v>
+      </c>
+      <c r="T18" s="41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="U18" s="41">
+        <v>0.871</v>
+      </c>
+      <c r="V18" s="40">
+        <v>111342</v>
+      </c>
+      <c r="W18" s="34">
+        <f>P18*0.6</f>
+        <v>5073</v>
+      </c>
+      <c r="X18" s="21">
+        <f>W18*0.4</f>
+        <v>2029.2</v>
+      </c>
+      <c r="Y18" s="22">
+        <f>W18/V18</f>
+        <v>4.5562321495931452E-2</v>
+      </c>
+      <c r="Z18" s="20">
+        <f>IF(U18&gt;=0.2,X18*5,IF(U18&gt;=0.15,X18*3,IF(U18&gt;=0.1,X18*2,X18*1.5)))</f>
+        <v>10146</v>
+      </c>
+      <c r="AA18" s="22">
+        <f>Z18/J18</f>
+        <v>6.8553127660437016E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="19">
+        <f>AA19</f>
+        <v>6.7187130352495864E-2</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="38">
+        <v>9757</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="40">
-        <v>58879</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="40">
-        <v>13360</v>
-      </c>
-      <c r="P17" s="40">
-        <v>5704</v>
-      </c>
-      <c r="Q17" s="41">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="R17" s="40">
-        <v>4521</v>
-      </c>
-      <c r="S17" s="41">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="T17" s="41">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="U17" s="41">
-        <v>0.66</v>
-      </c>
-      <c r="V17" s="40">
-        <v>27231</v>
-      </c>
-      <c r="W17" s="34">
-        <f t="shared" si="1"/>
-        <v>3422.4</v>
-      </c>
-      <c r="X17" s="21">
-        <f t="shared" si="2"/>
-        <v>1368.96</v>
-      </c>
-      <c r="Y17" s="22">
-        <f t="shared" si="5"/>
-        <v>0.12568029084499285</v>
-      </c>
-      <c r="Z17" s="20">
-        <f t="shared" si="3"/>
-        <v>6844.8</v>
-      </c>
-      <c r="AA17" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11625197438815198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11517057633366053</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="38">
-        <v>5302</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="40">
-        <v>49919</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="41">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O18" s="40">
-        <v>35799</v>
-      </c>
-      <c r="P18" s="40">
-        <v>4791</v>
-      </c>
-      <c r="Q18" s="41">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="R18" s="40">
-        <v>3194</v>
-      </c>
-      <c r="S18" s="41">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="T18" s="41">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="U18" s="41">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="V18" s="40">
-        <v>47819</v>
-      </c>
-      <c r="W18" s="34">
-        <f t="shared" si="1"/>
-        <v>2874.6</v>
-      </c>
-      <c r="X18" s="21">
-        <f t="shared" si="2"/>
-        <v>1149.8399999999999</v>
-      </c>
-      <c r="Y18" s="22">
-        <f t="shared" si="5"/>
-        <v>6.0114180555845997E-2</v>
-      </c>
-      <c r="Z18" s="20">
-        <f t="shared" si="3"/>
-        <v>5749.2</v>
-      </c>
-      <c r="AA18" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11517057633366053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>0.10532193780771115</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="38">
-        <v>7749</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>72</v>
-      </c>
       <c r="H19" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J19" s="40">
-        <v>46919</v>
+        <v>126810</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="N19" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O19" s="40">
-        <v>21607</v>
+        <v>25635</v>
       </c>
       <c r="P19" s="40">
-        <v>4118</v>
+        <v>7100</v>
       </c>
       <c r="Q19" s="41">
-        <v>0.191</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="R19" s="40">
+        <v>4990</v>
+      </c>
+      <c r="S19" s="41">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T19" s="41">
+        <v>0.183</v>
+      </c>
+      <c r="U19" s="41">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="V19" s="40">
+        <v>27214</v>
+      </c>
+      <c r="W19" s="34">
+        <f>P19*0.6</f>
+        <v>4260</v>
+      </c>
+      <c r="X19" s="21">
+        <f>W19*0.4</f>
+        <v>1704</v>
+      </c>
+      <c r="Y19" s="22">
+        <f>W19/V19</f>
+        <v>0.15653707650474022</v>
+      </c>
+      <c r="Z19" s="20">
+        <f>IF(U19&gt;=0.2,X19*5,IF(U19&gt;=0.15,X19*3,IF(U19&gt;=0.1,X19*2,X19*1.5)))</f>
+        <v>8520</v>
+      </c>
+      <c r="AA19" s="22">
+        <f>Z19/J19</f>
+        <v>6.7187130352495864E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="19">
+        <f>AA20</f>
+        <v>8.7327726925222629E-2</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="38">
+        <v>2124</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="40">
+        <v>96794</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O20" s="40">
+        <v>30435</v>
+      </c>
+      <c r="P20" s="40">
+        <v>7044</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="R20" s="40">
+        <v>5029</v>
+      </c>
+      <c r="S20" s="41">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="T20" s="41">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="U20" s="41">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="V20" s="40">
+        <v>14260</v>
+      </c>
+      <c r="W20" s="34">
+        <f>P20*0.6</f>
+        <v>4226.3999999999996</v>
+      </c>
+      <c r="X20" s="21">
+        <f>W20*0.4</f>
+        <v>1690.56</v>
+      </c>
+      <c r="Y20" s="22">
+        <f>W20/V20</f>
+        <v>0.29638148667601683</v>
+      </c>
+      <c r="Z20" s="20">
+        <f>IF(U20&gt;=0.2,X20*5,IF(U20&gt;=0.15,X20*3,IF(U20&gt;=0.1,X20*2,X20*1.5)))</f>
+        <v>8452.7999999999993</v>
+      </c>
+      <c r="AA20" s="22">
+        <f>Z20/J20</f>
+        <v>8.7327726925222629E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="19">
+        <f>AA21</f>
+        <v>5.7336940878475622E-2</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="38">
+        <v>8771</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="40">
+        <v>86855</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="41">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O21" s="40">
+        <v>8494</v>
+      </c>
+      <c r="P21" s="40">
+        <v>4150</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="R21" s="40">
         <v>2864</v>
       </c>
-      <c r="S19" s="41">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="T19" s="41">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="U19" s="41">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="V19" s="40">
-        <v>46713</v>
-      </c>
-      <c r="W19" s="34">
-        <f t="shared" si="1"/>
-        <v>2470.7999999999997</v>
-      </c>
-      <c r="X19" s="21">
-        <f t="shared" si="2"/>
-        <v>988.31999999999994</v>
-      </c>
-      <c r="Y19" s="22">
-        <f t="shared" si="5"/>
-        <v>5.2893198895382437E-2</v>
-      </c>
-      <c r="Z19" s="20">
-        <f t="shared" si="3"/>
-        <v>4941.5999999999995</v>
-      </c>
-      <c r="AA19" s="22">
-        <f t="shared" si="4"/>
-        <v>0.10532193780771115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <f t="shared" si="0"/>
-        <v>0.13254463893042484</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="38">
-        <v>6333</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="40">
-        <v>45476</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="41">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="O20" s="40">
-        <v>28450</v>
-      </c>
-      <c r="P20" s="40">
-        <v>5023</v>
-      </c>
-      <c r="Q20" s="41">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="R20" s="40">
-        <v>3996</v>
-      </c>
-      <c r="S20" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T20" s="41">
-        <v>0.128</v>
-      </c>
-      <c r="U20" s="41">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="V20" s="40">
-        <v>31310</v>
-      </c>
-      <c r="W20" s="34">
-        <f t="shared" si="1"/>
-        <v>3013.7999999999997</v>
-      </c>
-      <c r="X20" s="21">
-        <f t="shared" si="2"/>
-        <v>1205.52</v>
-      </c>
-      <c r="Y20" s="22">
-        <f t="shared" si="5"/>
-        <v>9.6256786969019473E-2</v>
-      </c>
-      <c r="Z20" s="20">
-        <f t="shared" si="3"/>
-        <v>6027.6</v>
-      </c>
-      <c r="AA20" s="22">
-        <f t="shared" si="4"/>
-        <v>0.13254463893042484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <f t="shared" si="0"/>
-        <v>0.16897206782523042</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="38">
-        <v>3817</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="40">
-        <v>42639</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="41">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O21" s="40">
-        <v>42864</v>
-      </c>
-      <c r="P21" s="40">
-        <v>6004</v>
-      </c>
-      <c r="Q21" s="41">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R21" s="39">
-        <v>879</v>
-      </c>
       <c r="S21" s="41">
-        <v>2.1000000000000001E-2</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="T21" s="41">
-        <v>3.4000000000000002E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="U21" s="41">
-        <v>0.623</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="V21" s="40">
-        <v>25674</v>
+        <v>19536</v>
       </c>
       <c r="W21" s="34">
-        <f t="shared" si="1"/>
-        <v>3602.4</v>
+        <f>P21*0.6</f>
+        <v>2490</v>
       </c>
       <c r="X21" s="21">
-        <f t="shared" si="2"/>
-        <v>1440.96</v>
+        <f>W21*0.4</f>
+        <v>996</v>
       </c>
       <c r="Y21" s="22">
-        <f t="shared" si="5"/>
-        <v>0.14031315727973825</v>
+        <f>W21/V21</f>
+        <v>0.12745700245700245</v>
       </c>
       <c r="Z21" s="20">
-        <f t="shared" si="3"/>
-        <v>7204.8</v>
+        <f>IF(U21&gt;=0.2,X21*5,IF(U21&gt;=0.15,X21*3,IF(U21&gt;=0.1,X21*2,X21*1.5)))</f>
+        <v>4980</v>
       </c>
       <c r="AA21" s="22">
-        <f t="shared" si="4"/>
-        <v>0.16897206782523042</v>
+        <f>Z21/J21</f>
+        <v>5.7336940878475622E-2</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.14276094276094276</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>31</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19">
+        <f>AA22</f>
+        <v>3.9487880313601384E-2</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E22" s="38">
-        <v>8707</v>
+        <v>7177</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J22" s="40">
-        <v>40095</v>
+        <v>83418</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O22" s="40">
-        <v>19691</v>
+        <v>46533</v>
       </c>
       <c r="P22" s="40">
-        <v>4770</v>
+        <v>9150</v>
       </c>
       <c r="Q22" s="41">
-        <v>0.24199999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="R22" s="40">
-        <v>3564</v>
+        <v>1212</v>
       </c>
       <c r="S22" s="41">
-        <v>0.18099999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T22" s="41">
-        <v>6.0999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="U22" s="41">
-        <v>0.28999999999999998</v>
+        <v>0.04</v>
       </c>
       <c r="V22" s="40">
-        <v>58666</v>
+        <v>44139</v>
       </c>
       <c r="W22" s="34">
-        <f t="shared" si="1"/>
-        <v>2862</v>
+        <f>P22*0.6</f>
+        <v>5490</v>
       </c>
       <c r="X22" s="21">
-        <f t="shared" si="2"/>
-        <v>1144.8</v>
+        <f>W22*0.4</f>
+        <v>2196</v>
       </c>
       <c r="Y22" s="22">
         <f>W22/V22</f>
-        <v>4.8784645280059998E-2</v>
+        <v>0.12437980017671448</v>
       </c>
       <c r="Z22" s="20">
-        <f t="shared" si="3"/>
-        <v>5724</v>
+        <f>IF(U22&gt;=0.2,X22*5,IF(U22&gt;=0.15,X22*3,IF(U22&gt;=0.1,X22*2,X22*1.5)))</f>
+        <v>3294</v>
       </c>
       <c r="AA22" s="22">
-        <f t="shared" si="4"/>
-        <v>0.14276094276094276</v>
+        <f>Z22/J22</f>
+        <v>3.9487880313601384E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <f t="shared" si="0"/>
-        <v>0.14943180313104287</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>27</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="19">
+        <f>AA23</f>
+        <v>5.8757967765769602E-2</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E23" s="38">
-        <v>7463</v>
+        <v>4481</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J23" s="40">
-        <v>37751</v>
+        <v>79853</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="N23" s="41">
-        <v>3.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O23" s="40">
-        <v>20399</v>
+        <v>17045</v>
       </c>
       <c r="P23" s="40">
-        <v>4701</v>
+        <v>3910</v>
       </c>
       <c r="Q23" s="41">
-        <v>0.23</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="R23" s="40">
-        <v>3364</v>
+        <v>2726</v>
       </c>
       <c r="S23" s="41">
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="T23" s="41">
-        <v>7.0999999999999994E-2</v>
+        <v>0.25</v>
       </c>
       <c r="U23" s="41">
-        <v>0.67300000000000004</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="V23" s="40">
-        <v>47418</v>
+        <v>10907</v>
       </c>
       <c r="W23" s="34">
-        <f t="shared" si="1"/>
-        <v>2820.6</v>
+        <f>P23*0.6</f>
+        <v>2346</v>
       </c>
       <c r="X23" s="21">
-        <f t="shared" si="2"/>
-        <v>1128.24</v>
+        <f>W23*0.4</f>
+        <v>938.40000000000009</v>
       </c>
       <c r="Y23" s="22">
         <f>W23/V23</f>
-        <v>5.9483740351765152E-2</v>
+        <v>0.21509122581828183</v>
       </c>
       <c r="Z23" s="20">
-        <f t="shared" si="3"/>
-        <v>5641.2</v>
+        <f>IF(U23&gt;=0.2,X23*5,IF(U23&gt;=0.15,X23*3,IF(U23&gt;=0.1,X23*2,X23*1.5)))</f>
+        <v>4692</v>
       </c>
       <c r="AA23" s="22">
-        <f t="shared" si="4"/>
-        <v>0.14943180313104287</v>
+        <f>Z23/J23</f>
+        <v>5.8757967765769602E-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <f t="shared" si="0"/>
-        <v>0.12384612813742855</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>27</v>
+      <c r="A24" s="17"/>
+      <c r="B24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19">
+        <f>AA24</f>
+        <v>7.1235744587075087E-2</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E24" s="38">
-        <v>3597</v>
+        <v>3668</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J24" s="40">
-        <v>29921</v>
+        <v>72604</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="41">
-        <v>4.8000000000000001E-2</v>
+        <v>80</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="O24" s="40">
-        <v>17742</v>
+        <v>32541</v>
       </c>
       <c r="P24" s="40">
-        <v>3088</v>
+        <v>4310</v>
       </c>
       <c r="Q24" s="41">
-        <v>0.17399999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R24" s="40">
-        <v>2455</v>
+        <v>2414</v>
       </c>
       <c r="S24" s="41">
-        <v>0.13800000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="T24" s="41">
-        <v>6.6000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="U24" s="41">
-        <v>0.877</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="V24" s="40">
-        <v>37101</v>
+        <v>75471</v>
       </c>
       <c r="W24" s="34">
-        <f t="shared" si="1"/>
-        <v>1852.8</v>
+        <f>P24*0.6</f>
+        <v>2586</v>
       </c>
       <c r="X24" s="21">
-        <f t="shared" si="2"/>
-        <v>741.12</v>
+        <f>W24*0.4</f>
+        <v>1034.4000000000001</v>
       </c>
       <c r="Y24" s="22">
         <f>W24/V24</f>
-        <v>4.9939354734373734E-2</v>
+        <v>3.4264816949556784E-2</v>
       </c>
       <c r="Z24" s="20">
-        <f t="shared" si="3"/>
-        <v>3705.6</v>
+        <f>IF(U24&gt;=0.2,X24*5,IF(U24&gt;=0.15,X24*3,IF(U24&gt;=0.1,X24*2,X24*1.5)))</f>
+        <v>5172</v>
       </c>
       <c r="AA24" s="22">
-        <f t="shared" si="4"/>
-        <v>0.12384612813742855</v>
+        <f>Z24/J24</f>
+        <v>7.1235744587075087E-2</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11658094206821873</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="33" t="s">
-        <v>27</v>
+      <c r="A25" s="18"/>
+      <c r="B25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19">
+        <f>AA25</f>
+        <v>0.11625197438815198</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E25" s="38">
-        <v>4792</v>
+        <v>8739</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J25" s="40">
-        <v>29552</v>
+        <v>58879</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="N25" s="41">
-        <v>4.2999999999999997E-2</v>
+        <v>80</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="O25" s="40">
-        <v>16450</v>
+        <v>13360</v>
       </c>
       <c r="P25" s="40">
-        <v>2871</v>
+        <v>5704</v>
       </c>
       <c r="Q25" s="41">
-        <v>0.17499999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="R25" s="40">
-        <v>2114</v>
+        <v>4521</v>
       </c>
       <c r="S25" s="41">
-        <v>0.129</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="T25" s="41">
-        <v>0.14299999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="U25" s="41">
-        <v>0.76700000000000002</v>
+        <v>0.66</v>
       </c>
       <c r="V25" s="40">
-        <v>14832</v>
+        <v>27231</v>
       </c>
       <c r="W25" s="34">
-        <f t="shared" ref="W25:W32" si="6">P25*0.6</f>
-        <v>1722.6</v>
+        <f>P25*0.6</f>
+        <v>3422.4</v>
       </c>
       <c r="X25" s="21">
-        <f t="shared" ref="X25:X32" si="7">W25*0.4</f>
-        <v>689.04</v>
+        <f>W25*0.4</f>
+        <v>1368.96</v>
       </c>
       <c r="Y25" s="22">
         <f>W25/V25</f>
-        <v>0.11614077669902911</v>
+        <v>0.12568029084499285</v>
       </c>
       <c r="Z25" s="20">
-        <f t="shared" si="3"/>
-        <v>3445.2</v>
+        <f>IF(U25&gt;=0.2,X25*5,IF(U25&gt;=0.15,X25*3,IF(U25&gt;=0.1,X25*2,X25*1.5)))</f>
+        <v>6844.8</v>
       </c>
       <c r="AA25" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11658094206821873</v>
+        <f>Z25/J25</f>
+        <v>0.11625197438815198</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11140166281436507</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="33" t="s">
-        <v>31</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="19">
+        <f>AA26</f>
+        <v>0.14943180313104287</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E26" s="38">
-        <v>4345</v>
+        <v>7463</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J26" s="40">
-        <v>28987</v>
+        <v>37751</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="N26" s="41">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O26" s="40">
-        <v>10797</v>
+        <v>20399</v>
       </c>
       <c r="P26" s="40">
-        <v>2691</v>
+        <v>4701</v>
       </c>
       <c r="Q26" s="41">
-        <v>0.249</v>
+        <v>0.23</v>
       </c>
       <c r="R26" s="40">
-        <v>1758</v>
+        <v>3364</v>
       </c>
       <c r="S26" s="41">
-        <v>0.16300000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="T26" s="41">
-        <v>0.16500000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="U26" s="41">
-        <v>0.74099999999999999</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="V26" s="40">
-        <v>10645</v>
+        <v>47418</v>
       </c>
       <c r="W26" s="34">
-        <f t="shared" si="6"/>
-        <v>1614.6</v>
+        <f>P26*0.6</f>
+        <v>2820.6</v>
       </c>
       <c r="X26" s="21">
-        <f t="shared" si="7"/>
-        <v>645.84</v>
+        <f>W26*0.4</f>
+        <v>1128.24</v>
       </c>
       <c r="Y26" s="22">
         <f>W26/V26</f>
-        <v>0.15167684358853922</v>
+        <v>5.9483740351765152E-2</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" si="3"/>
-        <v>3229.2000000000003</v>
+        <f>IF(U26&gt;=0.2,X26*5,IF(U26&gt;=0.15,X26*3,IF(U26&gt;=0.1,X26*2,X26*1.5)))</f>
+        <v>5641.2</v>
       </c>
       <c r="AA26" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11140166281436507</v>
+        <f>Z26/J26</f>
+        <v>0.14943180313104287</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <f t="shared" si="0"/>
-        <v>0.14896302975653744</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="33" t="s">
-        <v>31</v>
+      <c r="A27" s="18"/>
+      <c r="B27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19">
+        <f>AA27</f>
+        <v>0.12384612813742855</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E27" s="38">
-        <v>7638</v>
+        <v>3597</v>
       </c>
       <c r="F27" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>58</v>
-      </c>
       <c r="I27" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J27" s="40">
-        <v>26616</v>
+        <v>29921</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="N27" s="41">
-        <v>5.8000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O27" s="40">
-        <v>21463</v>
+        <v>17742</v>
       </c>
       <c r="P27" s="40">
-        <v>3304</v>
+        <v>3088</v>
       </c>
       <c r="Q27" s="41">
-        <v>0.154</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="R27" s="40">
-        <v>1727</v>
+        <v>2455</v>
       </c>
       <c r="S27" s="41">
-        <v>0.08</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="T27" s="41">
-        <v>0.22</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="U27" s="41">
-        <v>0.36599999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="V27" s="40">
-        <v>7848</v>
+        <v>37101</v>
       </c>
       <c r="W27" s="34">
-        <f t="shared" si="6"/>
-        <v>1982.3999999999999</v>
+        <f>P27*0.6</f>
+        <v>1852.8</v>
       </c>
       <c r="X27" s="21">
-        <f t="shared" si="7"/>
-        <v>792.96</v>
+        <f>W27*0.4</f>
+        <v>741.12</v>
       </c>
       <c r="Y27" s="22">
         <f>W27/V27</f>
-        <v>0.25259938837920487</v>
+        <v>4.9939354734373734E-2</v>
       </c>
       <c r="Z27" s="20">
-        <f t="shared" si="3"/>
-        <v>3964.8</v>
+        <f>IF(U27&gt;=0.2,X27*5,IF(U27&gt;=0.15,X27*3,IF(U27&gt;=0.1,X27*2,X27*1.5)))</f>
+        <v>3705.6</v>
       </c>
       <c r="AA27" s="22">
-        <f t="shared" si="4"/>
-        <v>0.14896302975653744</v>
+        <f>Z27/J27</f>
+        <v>0.12384612813742855</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11037908896361971</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="33" t="s">
-        <v>27</v>
+      <c r="A28" s="20"/>
+      <c r="B28" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19">
+        <f>AA28</f>
+        <v>0.11658094206821873</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E28" s="38">
-        <v>2461</v>
+        <v>4792</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J28" s="40">
-        <v>26168</v>
+        <v>29552</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N28" s="41">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O28" s="40">
-        <v>7737</v>
+        <v>16450</v>
       </c>
       <c r="P28" s="40">
-        <v>2407</v>
+        <v>2871</v>
       </c>
       <c r="Q28" s="41">
-        <v>0.311</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="R28" s="40">
-        <v>1535</v>
+        <v>2114</v>
       </c>
       <c r="S28" s="41">
-        <v>0.19800000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="T28" s="41">
-        <v>8.8999999999999996E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="U28" s="41">
-        <v>0.746</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="V28" s="40">
-        <v>17169</v>
+        <v>14832</v>
       </c>
       <c r="W28" s="34">
-        <f t="shared" si="6"/>
-        <v>1444.2</v>
+        <f>P28*0.6</f>
+        <v>1722.6</v>
       </c>
       <c r="X28" s="21">
-        <f t="shared" si="7"/>
-        <v>577.68000000000006</v>
+        <f>W28*0.4</f>
+        <v>689.04</v>
       </c>
       <c r="Y28" s="22">
         <f>W28/V28</f>
-        <v>8.4116721998951607E-2</v>
+        <v>0.11614077669902911</v>
       </c>
       <c r="Z28" s="20">
-        <f t="shared" si="3"/>
-        <v>2888.4000000000005</v>
+        <f>IF(U28&gt;=0.2,X28*5,IF(U28&gt;=0.15,X28*3,IF(U28&gt;=0.1,X28*2,X28*1.5)))</f>
+        <v>3445.2</v>
       </c>
       <c r="AA28" s="22">
-        <f t="shared" si="4"/>
+        <f>Z28/J28</f>
+        <v>0.11658094206821873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19">
+        <f>AA29</f>
         <v>0.11037908896361971</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <f t="shared" si="0"/>
-        <v>0.12368774652160723</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="33" t="s">
-        <v>162</v>
-      </c>
       <c r="D29" s="37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E29" s="38">
-        <v>6788</v>
+        <v>2461</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J29" s="40">
-        <v>23071</v>
+        <v>26168</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="N29" s="41">
-        <v>2.8000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O29" s="40">
-        <v>17951</v>
+        <v>7737</v>
       </c>
       <c r="P29" s="40">
-        <v>2378</v>
+        <v>2407</v>
       </c>
       <c r="Q29" s="41">
-        <v>0.13200000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="R29" s="40">
-        <v>1646</v>
+        <v>1535</v>
       </c>
       <c r="S29" s="41">
-        <v>9.1999999999999998E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="T29" s="41">
-        <v>0.08</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="U29" s="41">
-        <v>0.71399999999999997</v>
+        <v>0.746</v>
       </c>
       <c r="V29" s="40">
-        <v>20522</v>
+        <v>17169</v>
       </c>
       <c r="W29" s="34">
-        <f t="shared" si="6"/>
-        <v>1426.8</v>
+        <f>P29*0.6</f>
+        <v>1444.2</v>
       </c>
       <c r="X29" s="21">
-        <f t="shared" si="7"/>
-        <v>570.72</v>
+        <f>W29*0.4</f>
+        <v>577.68000000000006</v>
       </c>
       <c r="Y29" s="22">
         <f>W29/V29</f>
-        <v>6.952538738914335E-2</v>
+        <v>8.4116721998951607E-2</v>
       </c>
       <c r="Z29" s="20">
-        <f t="shared" si="3"/>
-        <v>2853.6000000000004</v>
+        <f>IF(U29&gt;=0.2,X29*5,IF(U29&gt;=0.15,X29*3,IF(U29&gt;=0.1,X29*2,X29*1.5)))</f>
+        <v>2888.4000000000005</v>
       </c>
       <c r="AA29" s="22">
-        <f t="shared" si="4"/>
+        <f>Z29/J29</f>
+        <v>0.11037908896361971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="19">
+        <f>AA30</f>
         <v>0.12368774652160723</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <f t="shared" si="0"/>
-        <v>0.30136141340265232</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="33" t="s">
-        <v>27</v>
-      </c>
       <c r="D30" s="37" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E30" s="38">
-        <v>3932</v>
+        <v>6788</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J30" s="40">
-        <v>22697</v>
+        <v>23071</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="N30" s="41">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="O30" s="40">
-        <v>24336</v>
+        <v>17951</v>
       </c>
       <c r="P30" s="40">
-        <v>5700</v>
+        <v>2378</v>
       </c>
       <c r="Q30" s="41">
-        <v>0.23400000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R30" s="40">
-        <v>1342</v>
+        <v>1646</v>
       </c>
       <c r="S30" s="41">
-        <v>5.5E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="T30" s="41">
-        <v>4.1000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="U30" s="41">
-        <v>0.72799999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="V30" s="40">
-        <v>33009</v>
+        <v>20522</v>
       </c>
       <c r="W30" s="34">
-        <f t="shared" si="6"/>
-        <v>3420</v>
+        <f>P30*0.6</f>
+        <v>1426.8</v>
       </c>
       <c r="X30" s="21">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <f>W30*0.4</f>
+        <v>570.72</v>
       </c>
       <c r="Y30" s="22">
         <f>W30/V30</f>
-        <v>0.10360810687994183</v>
+        <v>6.952538738914335E-2</v>
       </c>
       <c r="Z30" s="20">
-        <f t="shared" si="3"/>
-        <v>6840</v>
+        <f>IF(U30&gt;=0.2,X30*5,IF(U30&gt;=0.15,X30*3,IF(U30&gt;=0.1,X30*2,X30*1.5)))</f>
+        <v>2853.6000000000004</v>
       </c>
       <c r="AA30" s="22">
-        <f t="shared" si="4"/>
+        <f>Z30/J30</f>
+        <v>0.12368774652160723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="19">
+        <f>AA31</f>
         <v>0.30136141340265232</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <f t="shared" si="0"/>
-        <v>0.11158635625338385</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="33" t="s">
-        <v>188</v>
-      </c>
       <c r="D31" s="37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E31" s="38">
-        <v>8798</v>
+        <v>3932</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J31" s="40">
-        <v>22164</v>
+        <v>22697</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" s="41">
-        <v>3.5000000000000003E-2</v>
+        <v>80</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="O31" s="40">
-        <v>11860</v>
+        <v>24336</v>
       </c>
       <c r="P31" s="40">
-        <v>2061</v>
+        <v>5700</v>
       </c>
       <c r="Q31" s="41">
-        <v>0.17399999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="R31" s="40">
-        <v>1312</v>
+        <v>1342</v>
       </c>
       <c r="S31" s="41">
-        <v>0.111</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T31" s="41">
-        <v>0.22900000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="U31" s="41">
-        <v>0.48799999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="V31" s="40">
-        <v>5739</v>
+        <v>33009</v>
       </c>
       <c r="W31" s="34">
-        <f t="shared" si="6"/>
-        <v>1236.5999999999999</v>
+        <f>P31*0.6</f>
+        <v>3420</v>
       </c>
       <c r="X31" s="21">
-        <f t="shared" si="7"/>
-        <v>494.64</v>
+        <f>W31*0.4</f>
+        <v>1368</v>
       </c>
       <c r="Y31" s="22">
         <f>W31/V31</f>
-        <v>0.21547307893361212</v>
+        <v>0.10360810687994183</v>
       </c>
       <c r="Z31" s="20">
-        <f t="shared" si="3"/>
-        <v>2473.1999999999998</v>
+        <f>IF(U31&gt;=0.2,X31*5,IF(U31&gt;=0.15,X31*3,IF(U31&gt;=0.1,X31*2,X31*1.5)))</f>
+        <v>6840</v>
       </c>
       <c r="AA31" s="22">
-        <f t="shared" si="4"/>
-        <v>0.11158635625338385</v>
+        <f>Z31/J31</f>
+        <v>0.30136141340265232</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="42">
-        <f t="shared" si="0"/>
-        <v>0.15373764558489164</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="45">
-        <v>9769</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="47">
-        <v>21551</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" s="46" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="19">
+        <f>AA32</f>
+        <v>6.7326467834693052E-2</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="48">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O32" s="47">
-        <v>12986</v>
-      </c>
-      <c r="P32" s="47">
-        <v>2761</v>
-      </c>
-      <c r="Q32" s="48">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="R32" s="47">
-        <v>1881</v>
-      </c>
-      <c r="S32" s="48">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="T32" s="48">
-        <v>0.373</v>
-      </c>
-      <c r="U32" s="48">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="V32" s="47">
-        <v>5043</v>
-      </c>
-      <c r="W32" s="49">
-        <f t="shared" si="6"/>
-        <v>1656.6</v>
-      </c>
-      <c r="X32" s="50">
-        <f t="shared" si="7"/>
-        <v>662.64</v>
-      </c>
-      <c r="Y32" s="51">
+      <c r="E32" s="38">
+        <v>4919</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="40">
+        <v>134586</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="41">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O32" s="40">
+        <v>45238</v>
+      </c>
+      <c r="P32" s="40">
+        <v>7551</v>
+      </c>
+      <c r="Q32" s="41">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="R32" s="40">
+        <v>5577</v>
+      </c>
+      <c r="S32" s="41">
+        <v>0.123</v>
+      </c>
+      <c r="T32" s="41">
+        <v>0.123</v>
+      </c>
+      <c r="U32" s="41">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="V32" s="40">
+        <v>45351</v>
+      </c>
+      <c r="W32" s="34">
+        <f>P32*0.6</f>
+        <v>4530.5999999999995</v>
+      </c>
+      <c r="X32" s="21">
+        <f>W32*0.4</f>
+        <v>1812.2399999999998</v>
+      </c>
+      <c r="Y32" s="22">
         <f>W32/V32</f>
-        <v>0.32849494348602021</v>
-      </c>
-      <c r="Z32" s="43">
-        <f t="shared" si="3"/>
-        <v>3313.2</v>
-      </c>
-      <c r="AA32" s="51">
-        <f t="shared" si="4"/>
-        <v>0.15373764558489164</v>
+        <v>9.9900773963087899E-2</v>
+      </c>
+      <c r="Z32" s="20">
+        <f>IF(U32&gt;=0.2,X32*5,IF(U32&gt;=0.15,X32*3,IF(U32&gt;=0.1,X32*2,X32*1.5)))</f>
+        <v>9061.1999999999989</v>
+      </c>
+      <c r="AA32" s="22">
+        <f>Z32/J32</f>
+        <v>6.7326467834693052E-2</v>
       </c>
     </row>
     <row r="33" spans="25:27" ht="13.2" x14ac:dyDescent="0.25">
@@ -11261,50 +11250,55 @@
       <c r="AA999" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AC32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A2:A32">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C2:C32">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="あり">
-      <formula>NOT(ISERROR(SEARCH("あり",C2)))</formula>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="あり">
+      <formula>NOT(ISERROR(SEARCH("あり",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="◯">
+      <formula>NOT(ISERROR(SEARCH("◯",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.buffett-code.com/company/4552/" xr:uid="{2316C2A7-0F20-4133-9F0A-BDDF15D817C6}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.buffett-code.com/company/2815/" xr:uid="{8852901A-5600-4458-B2CB-4F0962539765}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.buffett-code.com/company/4919/" xr:uid="{E5ECAA0F-DD49-4B70-A82F-A7E5ADB01EDC}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.buffett-code.com/company/9757/" xr:uid="{970B1452-7B8B-41C3-A8B3-F6AFF1D29788}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.buffett-code.com/company/4423/" xr:uid="{F7B28C11-CCD7-4E07-892E-9D0D15F474C6}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.buffett-code.com/company/2124/" xr:uid="{F435C214-D79B-497B-8208-83CDF5297E15}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.buffett-code.com/company/8771/" xr:uid="{10AF2A0A-9012-472A-9D0E-A772B6861C12}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.buffett-code.com/company/7177/" xr:uid="{A9D47ACA-D788-4EC1-823D-4D723CBE895C}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.buffett-code.com/company/4481/" xr:uid="{852D7911-0143-4BDD-81DD-D06D91357B5F}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.buffett-code.com/company/3668/" xr:uid="{7B2C1B92-6181-4462-A396-2FBBDFCB844B}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.buffett-code.com/company/3844/" xr:uid="{1CD9DD8D-4266-4D1F-9977-306BC022997E}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://www.buffett-code.com/company/6929/" xr:uid="{154F9818-7466-43CE-B275-1449904315C9}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://www.buffett-code.com/company/4825/" xr:uid="{60741684-49ED-48AD-B60C-7C765699CE26}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://www.buffett-code.com/company/7447/" xr:uid="{AC515477-852F-468A-986B-E349E79FE96E}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://www.buffett-code.com/company/8739/" xr:uid="{3E275891-0E5F-4603-BC9E-A07EBB41D6E6}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://www.buffett-code.com/company/5302/" xr:uid="{11CBDE6A-790A-42A5-B880-C0460C496B39}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://www.buffett-code.com/company/7749/" xr:uid="{4B64D437-A23D-4596-83FA-7FCB3A271146}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://www.buffett-code.com/company/6333/" xr:uid="{B082EAF2-9972-46EF-8C2D-1C6354528278}"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://www.buffett-code.com/company/3817/" xr:uid="{B0E7D0C2-1C21-4F85-ABDC-6C9075919545}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.buffett-code.com/company/8707/" xr:uid="{CFE02C24-3AC9-4BCF-8257-7BB6803DCA1B}"/>
-    <hyperlink ref="D23" r:id="rId21" display="https://www.buffett-code.com/company/7463/" xr:uid="{292431D5-021B-4FA8-A45A-201CA3D92A51}"/>
-    <hyperlink ref="D24" r:id="rId22" display="https://www.buffett-code.com/company/3597/" xr:uid="{038A1BB0-E75C-4C68-80EE-6EB000B865D2}"/>
-    <hyperlink ref="D25" r:id="rId23" display="https://www.buffett-code.com/company/4792/" xr:uid="{19742D9D-232C-4660-8FE2-5925E98D0A60}"/>
-    <hyperlink ref="D26" r:id="rId24" display="https://www.buffett-code.com/company/4345/" xr:uid="{B1DD71BB-2AB4-46D7-8170-8656F4DC9B14}"/>
-    <hyperlink ref="D27" r:id="rId25" display="https://www.buffett-code.com/company/7638/" xr:uid="{CA999268-4F9D-42E0-B8DB-8B8F1F0917CA}"/>
-    <hyperlink ref="D28" r:id="rId26" display="https://www.buffett-code.com/company/2461/" xr:uid="{DEB34203-6127-4DEC-A105-4402A1C5B9F3}"/>
-    <hyperlink ref="D29" r:id="rId27" display="https://www.buffett-code.com/company/6788/" xr:uid="{DCFF50FA-D8E5-4F5F-A806-5C628A052E81}"/>
-    <hyperlink ref="D30" r:id="rId28" display="https://www.buffett-code.com/company/3932/" xr:uid="{9ED9EA80-9D96-40DF-834A-B16914C9B9F6}"/>
-    <hyperlink ref="D31" r:id="rId29" display="https://www.buffett-code.com/company/8798/" xr:uid="{852789BE-B1FE-4C16-955D-FA7023C26D6B}"/>
-    <hyperlink ref="D32" r:id="rId30" display="https://www.buffett-code.com/company/9769/" xr:uid="{97E6CC74-EA5E-4702-A47E-950331C26B3C}"/>
-    <hyperlink ref="D2" r:id="rId31" display="https://www.buffett-code.com/company/7730/" xr:uid="{67FECF63-64D6-47D4-B8D4-0A4028D235CA}"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.buffett-code.com/company/4552/" xr:uid="{2316C2A7-0F20-4133-9F0A-BDDF15D817C6}"/>
+    <hyperlink ref="D18" r:id="rId2" display="https://www.buffett-code.com/company/2815/" xr:uid="{8852901A-5600-4458-B2CB-4F0962539765}"/>
+    <hyperlink ref="D32" r:id="rId3" display="https://www.buffett-code.com/company/4919/" xr:uid="{E5ECAA0F-DD49-4B70-A82F-A7E5ADB01EDC}"/>
+    <hyperlink ref="D19" r:id="rId4" display="https://www.buffett-code.com/company/9757/" xr:uid="{970B1452-7B8B-41C3-A8B3-F6AFF1D29788}"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://www.buffett-code.com/company/4423/" xr:uid="{F7B28C11-CCD7-4E07-892E-9D0D15F474C6}"/>
+    <hyperlink ref="D20" r:id="rId6" display="https://www.buffett-code.com/company/2124/" xr:uid="{F435C214-D79B-497B-8208-83CDF5297E15}"/>
+    <hyperlink ref="D21" r:id="rId7" display="https://www.buffett-code.com/company/8771/" xr:uid="{10AF2A0A-9012-472A-9D0E-A772B6861C12}"/>
+    <hyperlink ref="D22" r:id="rId8" display="https://www.buffett-code.com/company/7177/" xr:uid="{A9D47ACA-D788-4EC1-823D-4D723CBE895C}"/>
+    <hyperlink ref="D23" r:id="rId9" display="https://www.buffett-code.com/company/4481/" xr:uid="{852D7911-0143-4BDD-81DD-D06D91357B5F}"/>
+    <hyperlink ref="D24" r:id="rId10" display="https://www.buffett-code.com/company/3668/" xr:uid="{7B2C1B92-6181-4462-A396-2FBBDFCB844B}"/>
+    <hyperlink ref="D3" r:id="rId11" display="https://www.buffett-code.com/company/3844/" xr:uid="{1CD9DD8D-4266-4D1F-9977-306BC022997E}"/>
+    <hyperlink ref="D9" r:id="rId12" display="https://www.buffett-code.com/company/6929/" xr:uid="{154F9818-7466-43CE-B275-1449904315C9}"/>
+    <hyperlink ref="D4" r:id="rId13" display="https://www.buffett-code.com/company/4825/" xr:uid="{60741684-49ED-48AD-B60C-7C765699CE26}"/>
+    <hyperlink ref="D10" r:id="rId14" display="https://www.buffett-code.com/company/7447/" xr:uid="{AC515477-852F-468A-986B-E349E79FE96E}"/>
+    <hyperlink ref="D25" r:id="rId15" display="https://www.buffett-code.com/company/8739/" xr:uid="{3E275891-0E5F-4603-BC9E-A07EBB41D6E6}"/>
+    <hyperlink ref="D11" r:id="rId16" display="https://www.buffett-code.com/company/5302/" xr:uid="{11CBDE6A-790A-42A5-B880-C0460C496B39}"/>
+    <hyperlink ref="D7" r:id="rId17" display="https://www.buffett-code.com/company/7749/" xr:uid="{4B64D437-A23D-4596-83FA-7FCB3A271146}"/>
+    <hyperlink ref="D12" r:id="rId18" display="https://www.buffett-code.com/company/6333/" xr:uid="{B082EAF2-9972-46EF-8C2D-1C6354528278}"/>
+    <hyperlink ref="D5" r:id="rId19" display="https://www.buffett-code.com/company/3817/" xr:uid="{B0E7D0C2-1C21-4F85-ABDC-6C9075919545}"/>
+    <hyperlink ref="D6" r:id="rId20" display="https://www.buffett-code.com/company/8707/" xr:uid="{CFE02C24-3AC9-4BCF-8257-7BB6803DCA1B}"/>
+    <hyperlink ref="D26" r:id="rId21" display="https://www.buffett-code.com/company/7463/" xr:uid="{292431D5-021B-4FA8-A45A-201CA3D92A51}"/>
+    <hyperlink ref="D27" r:id="rId22" display="https://www.buffett-code.com/company/3597/" xr:uid="{038A1BB0-E75C-4C68-80EE-6EB000B865D2}"/>
+    <hyperlink ref="D28" r:id="rId23" display="https://www.buffett-code.com/company/4792/" xr:uid="{19742D9D-232C-4660-8FE2-5925E98D0A60}"/>
+    <hyperlink ref="D13" r:id="rId24" display="https://www.buffett-code.com/company/4345/" xr:uid="{B1DD71BB-2AB4-46D7-8170-8656F4DC9B14}"/>
+    <hyperlink ref="D14" r:id="rId25" display="https://www.buffett-code.com/company/7638/" xr:uid="{CA999268-4F9D-42E0-B8DB-8B8F1F0917CA}"/>
+    <hyperlink ref="D29" r:id="rId26" display="https://www.buffett-code.com/company/2461/" xr:uid="{DEB34203-6127-4DEC-A105-4402A1C5B9F3}"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://www.buffett-code.com/company/6788/" xr:uid="{DCFF50FA-D8E5-4F5F-A806-5C628A052E81}"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://www.buffett-code.com/company/3932/" xr:uid="{9ED9EA80-9D96-40DF-834A-B16914C9B9F6}"/>
+    <hyperlink ref="D16" r:id="rId29" display="https://www.buffett-code.com/company/8798/" xr:uid="{852789BE-B1FE-4C16-955D-FA7023C26D6B}"/>
+    <hyperlink ref="D15" r:id="rId30" display="https://www.buffett-code.com/company/9769/" xr:uid="{97E6CC74-EA5E-4702-A47E-950331C26B3C}"/>
+    <hyperlink ref="D17" r:id="rId31" display="https://www.buffett-code.com/company/7730/" xr:uid="{67FECF63-64D6-47D4-B8D4-0A4028D235CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
@@ -11325,34 +11319,34 @@
     <row r="1" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3">
         <v>7730</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="5">
         <v>196009</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L1" s="6">
         <v>0.02</v>
@@ -11385,37 +11379,37 @@
     <row r="2" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>4552</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5">
         <v>153864</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M2" s="5">
         <v>34343</v>
@@ -11445,34 +11439,34 @@
     <row r="3" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
         <v>2815</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" s="5">
         <v>148002</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L3" s="6">
         <v>2.1999999999999999E-2</v>
@@ -11505,34 +11499,34 @@
     <row r="4" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>4919</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5">
         <v>134586</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L4" s="6">
         <v>2.1000000000000001E-2</v>
@@ -11565,34 +11559,34 @@
     <row r="5" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
         <v>9757</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5">
         <v>126810</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L5" s="6">
         <v>2.5000000000000001E-2</v>
@@ -11625,34 +11619,34 @@
     <row r="6" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>4423</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5">
         <v>98728</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -11685,34 +11679,34 @@
     <row r="7" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
         <v>2124</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5">
         <v>96794</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L7" s="6">
         <v>3.5000000000000003E-2</v>
@@ -11745,34 +11739,34 @@
     <row r="8" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>8771</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5">
         <v>86855</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L8" s="6">
         <v>1.9E-2</v>
@@ -11805,37 +11799,37 @@
     <row r="9" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>7177</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5">
         <v>83418</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M9" s="5">
         <v>46533</v>
@@ -11865,34 +11859,34 @@
     <row r="10" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
         <v>4481</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5">
         <v>79853</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L10" s="6">
         <v>0.02</v>
@@ -11925,37 +11919,37 @@
     <row r="11" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3">
         <v>3668</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5">
         <v>72604</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M11" s="5">
         <v>32541</v>
@@ -11985,34 +11979,34 @@
     <row r="12" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3">
         <v>3844</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5">
         <v>72128</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L12" s="6">
         <v>0.02</v>
@@ -12045,34 +12039,34 @@
     <row r="13" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>6929</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5">
         <v>64193</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L13" s="6">
         <v>3.6999999999999998E-2</v>
@@ -12105,34 +12099,34 @@
     <row r="14" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3">
         <v>4825</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5">
         <v>64166</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L14" s="6">
         <v>2.1000000000000001E-2</v>
@@ -12165,34 +12159,34 @@
     <row r="15" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>7447</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5">
         <v>63951</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L15" s="6">
         <v>0.03</v>
@@ -12225,37 +12219,37 @@
     <row r="16" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>8739</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H16" s="5">
         <v>58879</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M16" s="5">
         <v>13360</v>
@@ -12285,34 +12279,34 @@
     <row r="17" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3">
         <v>5302</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5">
         <v>49919</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L17" s="6">
         <v>4.3999999999999997E-2</v>
@@ -12345,34 +12339,34 @@
     <row r="18" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3">
         <v>7749</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H18" s="5">
         <v>46919</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L18" s="6">
         <v>2.5000000000000001E-2</v>
@@ -12405,34 +12399,34 @@
     <row r="19" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3">
         <v>6333</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H19" s="5">
         <v>45476</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L19" s="6">
         <v>3.6999999999999998E-2</v>
@@ -12465,34 +12459,34 @@
     <row r="20" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3">
         <v>3817</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" s="5">
         <v>42639</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L20" s="6">
         <v>4.1000000000000002E-2</v>
@@ -12525,37 +12519,37 @@
     <row r="21" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3">
         <v>8707</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H21" s="5">
         <v>40095</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M21" s="5">
         <v>19691</v>
@@ -12585,34 +12579,34 @@
     <row r="22" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3">
         <v>7463</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H22" s="5">
         <v>37751</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L22" s="6">
         <v>3.9E-2</v>
@@ -12645,34 +12639,34 @@
     <row r="23" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3">
         <v>3597</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5">
         <v>29921</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L23" s="6">
         <v>4.8000000000000001E-2</v>
@@ -12705,34 +12699,34 @@
     <row r="24" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>4792</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5">
         <v>29552</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L24" s="6">
         <v>4.2999999999999997E-2</v>
@@ -12765,34 +12759,34 @@
     <row r="25" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3">
         <v>4345</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H25" s="5">
         <v>28987</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="L25" s="6">
         <v>2.9000000000000001E-2</v>
@@ -12825,34 +12819,34 @@
     <row r="26" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3">
         <v>7638</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5">
         <v>26616</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L26" s="6">
         <v>5.8000000000000003E-2</v>
@@ -12885,34 +12879,34 @@
     <row r="27" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C27" s="8">
         <v>2461</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H27" s="10">
         <v>26168</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L27" s="11">
         <v>4.8000000000000001E-2</v>
@@ -12945,34 +12939,34 @@
     <row r="28" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
         <v>6788</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H28" s="5">
         <v>23071</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L28" s="6">
         <v>2.8000000000000001E-2</v>
@@ -13005,37 +12999,37 @@
     <row r="29" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3">
         <v>3932</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H29" s="5">
         <v>22697</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M29" s="5">
         <v>24336</v>
@@ -13065,34 +13059,34 @@
     <row r="30" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3">
         <v>8798</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H30" s="5">
         <v>22164</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L30" s="6">
         <v>3.5000000000000003E-2</v>
@@ -13125,34 +13119,34 @@
     <row r="31" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C31" s="28">
         <v>9769</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H31" s="30">
         <v>21551</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L31" s="31">
         <v>4.3999999999999997E-2</v>
